--- a/floor_heating_setpoint.xlsx
+++ b/floor_heating_setpoint.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE36582-CE30-4366-B314-9BFA952F098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F682EF-80FD-43E7-8E77-D9E56303FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0538D5BD-812A-44B1-869E-F30A9707633B}"/>
   </bookViews>
@@ -26,14 +26,14 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">床暖房設定温度計算!$E$13</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">35</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">15</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">15</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -356,257 +356,257 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>床暖面積[m2]</t>
+    <rPh sb="0" eb="2">
+      <t>ユカダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>床暖と外部の貫流熱の差[W]</t>
+    <rPh sb="0" eb="2">
+      <t>ユカダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>床暖設定温度</t>
+    <rPh sb="0" eb="2">
+      <t>ユカダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓含む壁面積[m2]</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓なしの壁面積[m2]</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天井面積[m2]</t>
+    <rPh sb="0" eb="2">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天井の熱貫流率[W/m2K]</t>
+    <rPh sb="0" eb="2">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天井からの貫流熱[W]</t>
+    <rPh sb="0" eb="2">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天井</t>
+    <rPh sb="0" eb="2">
+      <t>テンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外気温毎の床暖設定(目標23℃)</t>
+    <rPh sb="0" eb="3">
+      <t>ガイキオン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均気温[℃]</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最低気温[℃]</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月別床暖設定目安</t>
+    <rPh sb="0" eb="2">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユカダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メヤス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常温度[℃]</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セーブ温度[℃]</t>
+    <rPh sb="3" eb="5">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近似曲線の傾き</t>
+    <rPh sb="0" eb="4">
+      <t>キンジキョクセン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近似曲線の切片</t>
+    <rPh sb="0" eb="4">
+      <t>キンジキョクセン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッペン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月別最低/平均気温(横浜)</t>
+    <rPh sb="0" eb="2">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨコハマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>床暖からの貫流熱[W]</t>
     <rPh sb="0" eb="2">
       <t>ユカダン</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="5" eb="6">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
       <t>ネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>床暖面積[m2]</t>
-    <rPh sb="0" eb="2">
-      <t>ユカダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メンセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>床暖と外部の貫流熱の差[W]</t>
-    <rPh sb="0" eb="2">
-      <t>ユカダン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>床暖設定温度</t>
-    <rPh sb="0" eb="2">
-      <t>ユカダン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>窓含む壁面積[m2]</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>メンセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>窓なしの壁面積[m2]</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>メンセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天井面積[m2]</t>
-    <rPh sb="0" eb="2">
-      <t>テンジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メンセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天井の熱貫流率[W/m2K]</t>
-    <rPh sb="0" eb="2">
-      <t>テンジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天井からの貫流熱[W]</t>
-    <rPh sb="0" eb="2">
-      <t>テンジョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ネツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>天井</t>
-    <rPh sb="0" eb="2">
-      <t>テンジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>計算</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外気温毎の床暖設定(目標23℃)</t>
-    <rPh sb="0" eb="3">
-      <t>ガイキオン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>平均気温[℃]</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キオン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最低気温[℃]</t>
-    <rPh sb="0" eb="2">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キオン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月別床暖設定目安</t>
-    <rPh sb="0" eb="2">
-      <t>ツキベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ユカダン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>メヤス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>通常温度[℃]</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>オンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セーブ温度[℃]</t>
-    <rPh sb="3" eb="5">
-      <t>オンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>近似曲線の傾き</t>
-    <rPh sb="0" eb="4">
-      <t>キンジキョクセン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カタム</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>近似曲線の切片</t>
-    <rPh sb="0" eb="4">
-      <t>キンジキョクセン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッペン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月別最低/平均気温(横浜)</t>
-    <rPh sb="0" eb="2">
-      <t>ツキベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キオン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨコハマ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -960,31 +960,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>29.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.9</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.3</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.8</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.2</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.6</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.4</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,7 +2210,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2242,24 +2242,24 @@
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5">
         <f>2.4*(5+3.5+6.12)</f>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5">
         <f>B2-B3-B4</f>
@@ -2277,25 +2277,25 @@
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2313,7 +2313,7 @@
         <v>-5</v>
       </c>
       <c r="H3" s="3">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3">
         <v>10</v>
@@ -2351,7 +2351,7 @@
         <v>-2.5</v>
       </c>
       <c r="H4" s="3">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3">
         <v>11</v>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:P10" si="0">CEILING($G$14*K4+$H$14,1)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3">
         <v>12</v>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="E6" s="5">
         <f>B6*E2*E11</f>
-        <v>120.60834240000003</v>
+        <v>119.28297600000001</v>
       </c>
       <c r="G6" s="3">
         <v>2.5</v>
       </c>
       <c r="H6" s="3">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
@@ -2446,11 +2446,11 @@
       </c>
       <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2466,13 +2466,13 @@
       </c>
       <c r="E7" s="5">
         <f>B7*B3*E11</f>
-        <v>30.147936000000005</v>
+        <v>29.81664</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="3">
-        <v>27.2</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3">
         <v>2</v>
@@ -2488,11 +2488,11 @@
       </c>
       <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2508,13 +2508,13 @@
       </c>
       <c r="E8" s="5">
         <f>B8*B4*E11</f>
-        <v>98.381920000000008</v>
+        <v>97.300799999999995</v>
       </c>
       <c r="G8" s="3">
         <v>7.5</v>
       </c>
       <c r="H8" s="3">
-        <v>26.6</v>
+        <v>27</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="O8" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="0"/>
@@ -2539,14 +2539,14 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="6">
         <v>0.14799999999999999</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5">
         <f>B9*B5*E11</f>
@@ -2572,11 +2572,11 @@
       </c>
       <c r="O9" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2584,21 +2584,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="5">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5">
         <f>2.703*B13*E12</f>
-        <v>289.15034357999991</v>
+        <v>246.4004126852779</v>
       </c>
       <c r="G10" s="3">
         <v>12.5</v>
       </c>
       <c r="H10" s="3">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="J10" s="3">
         <v>5</v>
@@ -2614,11 +2614,11 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2626,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3" t="s">
@@ -2634,13 +2634,13 @@
       </c>
       <c r="E11" s="5">
         <f>B11-B10</f>
-        <v>18.200000000000003</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3">
         <v>15</v>
       </c>
       <c r="H11" s="3">
-        <v>24.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2648,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="5">
-        <v>27</v>
+        <v>27.175551054892029</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="E12" s="5">
         <f>B12-B11</f>
-        <v>4.8999999999999986</v>
+        <v>4.1755510548920292</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5">
         <f>2.71*0.86+0.64*1.53+3.64*2.84+3.3*2.48</f>
@@ -2669,27 +2669,27 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="5">
         <f>ABS(E10-SUM(E6:E9))</f>
-        <v>40.012145179999862</v>
+        <v>3.3147221074614208E-6</v>
       </c>
       <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
         <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="9">
         <f>SLOPE(H3:H11,G3:G11)</f>
-        <v>-0.23133333333333336</v>
+        <v>-0.24</v>
       </c>
       <c r="H14" s="9">
         <f>INTERCEPT(H3:H11,G3:G11)</f>
-        <v>28.334444444444443</v>
+        <v>28.755555555555556</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2709,7 +2709,7 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
